--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD1C9E-B37F-49D8-AA2E-FECAA94A9552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86633B91-72CB-45F8-AEDE-EF2D7A4097DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Postgres</t>
+  </si>
+  <si>
+    <t>ORMS (Object Realtional Model)/ PRISMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,10 +686,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,6 +805,16 @@
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86633B91-72CB-45F8-AEDE-EF2D7A4097DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F16196-A42D-4292-839F-B3FCCFFF101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,7 +207,7 @@
     <t>ORMS (Object Realtional Model)/ PRISMA</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Autogenerated Client (Prisma)</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>60</v>
       </c>
     </row>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F16196-A42D-4292-839F-B3FCCFFF101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E970FE-4289-4AF3-97F1-FF2F5EE06267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30255" yWindow="1440" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOPICS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Autogenerated Client (Prisma)</t>
+  </si>
+  <si>
+    <t>Serverless Fns</t>
+  </si>
+  <si>
+    <t>Hono</t>
   </si>
 </sst>
 </file>
@@ -686,10 +692,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,6 +821,16 @@
     <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E970FE-4289-4AF3-97F1-FF2F5EE06267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020142D-01C4-4CD7-B1DA-6DB403DF58C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="1440" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOPICS" sheetId="1" r:id="rId1"/>
-    <sheet name="TAILWIND" sheetId="6" r:id="rId2"/>
-    <sheet name="REACT" sheetId="5" r:id="rId3"/>
-    <sheet name="DATABASES &amp; AUTH" sheetId="4" r:id="rId4"/>
-    <sheet name="NODE JS (EXPRESS)" sheetId="2" r:id="rId5"/>
-    <sheet name="JAVASCRIPT" sheetId="3" r:id="rId6"/>
+    <sheet name="NGINX" sheetId="8" r:id="rId2"/>
+    <sheet name="AWS" sheetId="7" r:id="rId3"/>
+    <sheet name="TAILWIND" sheetId="6" r:id="rId4"/>
+    <sheet name="REACT" sheetId="5" r:id="rId5"/>
+    <sheet name="DATABASES &amp; AUTH" sheetId="4" r:id="rId6"/>
+    <sheet name="NODE JS (EXPRESS)" sheetId="2" r:id="rId7"/>
+    <sheet name="JAVASCRIPT" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -214,6 +216,26 @@
   </si>
   <si>
     <t>Hono</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>ssh -i hk-pass.pem ubuntu@yourIP ---&gt; This it connect to your AWS Server</t>
+  </si>
+  <si>
+    <t>chmod 700 "your_penFile"  ---&gt; This bascially changes your read write and all that permissions for that files</t>
+  </si>
+  <si>
+    <t>Reverse Proxy</t>
+  </si>
+  <si>
+    <t>NGINX</t>
+  </si>
+  <si>
+    <t>Sudo apt update 
+Sudo apt install nginx
+Sudo nginx -s reload</t>
   </si>
 </sst>
 </file>
@@ -692,10 +714,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,6 +855,21 @@
         <v>62</v>
       </c>
     </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -843,6 +880,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AFEB60-0CBC-4E49-A6BC-204D5D974691}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="197.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83147F43-428A-488F-85DB-A9B39FF97CD2}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="159.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF07A5A1-A8AB-49F1-BC6F-A957BCAA1B47}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -902,7 +990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F8C310-E017-4C13-A3A7-133FE037E9BB}">
   <dimension ref="A1:A52"/>
   <sheetViews>
@@ -1067,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D249EC3-E0C4-4E17-8AEB-D7951A6D6BCB}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -1117,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1211,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020142D-01C4-4CD7-B1DA-6DB403DF58C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46C902-8FEE-459A-86BB-A9A8C23953AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOPICS" sheetId="1" r:id="rId1"/>
-    <sheet name="NGINX" sheetId="8" r:id="rId2"/>
-    <sheet name="AWS" sheetId="7" r:id="rId3"/>
-    <sheet name="TAILWIND" sheetId="6" r:id="rId4"/>
-    <sheet name="REACT" sheetId="5" r:id="rId5"/>
-    <sheet name="DATABASES &amp; AUTH" sheetId="4" r:id="rId6"/>
-    <sheet name="NODE JS (EXPRESS)" sheetId="2" r:id="rId7"/>
-    <sheet name="JAVASCRIPT" sheetId="3" r:id="rId8"/>
+    <sheet name="CERT MANAGE (HTTPS)" sheetId="9" r:id="rId2"/>
+    <sheet name="NGINX" sheetId="8" r:id="rId3"/>
+    <sheet name="AWS" sheetId="7" r:id="rId4"/>
+    <sheet name="TAILWIND" sheetId="6" r:id="rId5"/>
+    <sheet name="REACT" sheetId="5" r:id="rId6"/>
+    <sheet name="DATABASES &amp; AUTH" sheetId="4" r:id="rId7"/>
+    <sheet name="NODE JS (EXPRESS)" sheetId="2" r:id="rId8"/>
+    <sheet name="JAVASCRIPT" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -237,12 +238,40 @@
 Sudo apt install nginx
 Sudo nginx -s reload</t>
   </si>
+  <si>
+    <t xml:space="preserve">sudo rm sudo vi/etc/nginx/nginx.conf  --&gt; For reverse proxy
+sudo vi /etc/nginx/nginx.conf
+events {
+    # Event directives...
+}
+http {
+	server {
+    listen 80;
+    server_name be1.100xdevs.com;
+    location / {
+        proxy_pass http://localhost:8080;
+        proxy_http_version 1.1;
+        proxy_set_header Upgrade $http_upgrade;
+        proxy_set_header Connection 'upgrade';
+        proxy_set_header Host $host;
+        proxy_cache_bypass $http_upgrade;
+    }
+	}
+}
+</t>
+  </si>
+  <si>
+    <t>AWS Certificate Management (HTTPS)</t>
+  </si>
+  <si>
+    <t>https://certbot.eff.org/  --&gt; A free alternative to generate certificates for you websites</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +303,14 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -332,10 +369,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,8 +417,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -714,10 +757,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,6 +913,11 @@
         <v>67</v>
       </c>
     </row>
+    <row r="46" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -880,12 +928,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A994E5D6-8D0C-4B9E-8C80-579DCB412058}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="206.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{48EB51FE-1C85-4887-8F37-98D95193E24A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AFEB60-0CBC-4E49-A6BC-204D5D974691}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -897,17 +969,22 @@
         <v>68</v>
       </c>
     </row>
+    <row r="3" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83147F43-428A-488F-85DB-A9B39FF97CD2}">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF07A5A1-A8AB-49F1-BC6F-A957BCAA1B47}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -990,7 +1067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F8C310-E017-4C13-A3A7-133FE037E9BB}">
   <dimension ref="A1:A52"/>
   <sheetViews>
@@ -1155,7 +1232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D249EC3-E0C4-4E17-8AEB-D7951A6D6BCB}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -1205,7 +1282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1213,7 +1290,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46C902-8FEE-459A-86BB-A9A8C23953AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490DD9DA-7B33-4599-A1B7-194C0863CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>https://certbot.eff.org/  --&gt; A free alternative to generate certificates for you websites</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploying Frontends on AWS --&gt;  Cloudfront --&gt; S3 </t>
   </si>
 </sst>
 </file>
@@ -757,10 +763,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,6 +922,16 @@
     <row r="46" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490DD9DA-7B33-4599-A1B7-194C0863CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE1794-2D17-49F7-BFAF-7E1036F796FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t xml:space="preserve">Deploying Frontends on AWS --&gt;  Cloudfront --&gt; S3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploying NPM </t>
+  </si>
+  <si>
+    <t>Monoreps --&gt; TurboRepo</t>
   </si>
 </sst>
 </file>
@@ -763,10 +769,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,6 +938,16 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE1794-2D17-49F7-BFAF-7E1036F796FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3146E0F-56C8-4483-BD02-894FBAF1D9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Monoreps --&gt; TurboRepo</t>
+  </si>
+  <si>
+    <t>Actionable Docker</t>
   </si>
 </sst>
 </file>
@@ -769,10 +772,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,6 +951,11 @@
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MERN\myRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3146E0F-56C8-4483-BD02-894FBAF1D9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="TOPICS" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -281,12 +280,15 @@
   <si>
     <t>Actionable Docker</t>
   </si>
+  <si>
+    <t>Connection Pooling</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,30 +457,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A22" totalsRowShown="0">
-  <autoFilter ref="A1:A22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="A1:A22" totalsRowShown="0">
+  <autoFilter ref="A1:A22"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TOPICS"/>
+    <tableColumn id="1" name="TOPICS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table24" displayName="Table24" ref="A1:A20" totalsRowShown="0">
-  <autoFilter ref="A1:A20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table24" displayName="Table24" ref="A1:A20" totalsRowShown="0">
+  <autoFilter ref="A1:A20"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SUB TOPICS"/>
+    <tableColumn id="1" name="SUB TOPICS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:A20" totalsRowShown="0">
-  <autoFilter ref="A1:A20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:A20" totalsRowShown="0">
+  <autoFilter ref="A1:A20"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SUB TOPICS"/>
+    <tableColumn id="1" name="SUB TOPICS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -768,194 +770,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="18.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="18.75" customHeight="1">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="18.75" customHeight="1">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="18.75" customHeight="1">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="18.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="18.75" customHeight="1">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="18.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="18.75" customHeight="1">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="35.4" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="18.75" customHeight="1">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="18.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="28.8">
       <c r="A32" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="28.8">
       <c r="A34" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="28.8">
       <c r="A46" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="28.8">
       <c r="A48" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="15" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -968,48 +975,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A994E5D6-8D0C-4B9E-8C80-579DCB412058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="206.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="16" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{48EB51FE-1C85-4887-8F37-98D95193E24A}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AFEB60-0CBC-4E49-A6BC-204D5D974691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="197.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="345.6">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -1020,24 +1027,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83147F43-428A-488F-85DB-A9B39FF97CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="159.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1048,56 +1055,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF07A5A1-A8AB-49F1-BC6F-A957BCAA1B47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="28.8">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
@@ -1108,161 +1115,161 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F8C310-E017-4C13-A3A7-133FE037E9BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="43.2">
       <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" s="9" t="s">
         <v>54</v>
       </c>
@@ -1273,48 +1280,48 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D249EC3-E0C4-4E17-8AEB-D7951A6D6BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="9"/>
     </row>
   </sheetData>
@@ -1323,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1333,79 +1340,79 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="18.75" customHeight="1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="18.75" customHeight="1">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="18.75" customHeight="1">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="18.75" customHeight="1">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="18.75" customHeight="1">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="18.75" customHeight="1">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="18.75" customHeight="1">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="18.75" customHeight="1">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="18.75" customHeight="1">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="18.75" customHeight="1">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="18.75" customHeight="1">
       <c r="A20" s="4"/>
     </row>
   </sheetData>
@@ -1417,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1427,89 +1434,89 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="18.75" customHeight="1">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="18.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="18.75" customHeight="1">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="18.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="18.75" customHeight="1">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="18.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="18.75" customHeight="1">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="18.75" customHeight="1">
       <c r="A20" s="4"/>
     </row>
   </sheetData>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Connection Pooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prima Accelerate For Connection Pooling </t>
   </si>
 </sst>
 </file>
@@ -774,10 +777,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -963,6 +966,11 @@
     <row r="58" spans="1:1">
       <c r="A58" s="15" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="28.8">
+      <c r="A60" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1104,7 @@
     <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" ht="28.8">
+    <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>

--- a/TOPICS_COHORT.xlsx
+++ b/TOPICS_COHORT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>SUB TOPICS</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t xml:space="preserve">Prima Accelerate For Connection Pooling </t>
+  </si>
+  <si>
+    <t>Next Js</t>
+  </si>
+  <si>
+    <t>Docker</t>
   </si>
 </sst>
 </file>
@@ -777,10 +783,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -971,6 +977,16 @@
     <row r="60" spans="1:1" ht="28.8">
       <c r="A60" s="15" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
